--- a/Thiết kế/Thiết kế dữ liệu/Thiết kế dữ liệu.xlsx
+++ b/Thiết kế/Thiết kế dữ liệu/Thiết kế dữ liệu.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\CNPM\Thiết kế\Thiết kế lưu trữ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\CNPM\Thiết kế\Thiết kế dữ liệu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AF3A6DE-8719-4D4A-8D63-035B67E6FA90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286BF497-A92B-41A7-A76D-A58346F73D13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F0033F1E-B8C9-4114-96FD-579E1B5FF0C8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="121">
   <si>
     <t>Thiết kế dữ liệu</t>
   </si>
@@ -337,6 +337,57 @@
   </si>
   <si>
     <t>Bảng ERD</t>
+  </si>
+  <si>
+    <t>Danh sách các bảng</t>
+  </si>
+  <si>
+    <t>Bảng</t>
+  </si>
+  <si>
+    <t>Ý nghĩa</t>
+  </si>
+  <si>
+    <t>Đơn hàng</t>
+  </si>
+  <si>
+    <t>Hoá đơn</t>
+  </si>
+  <si>
+    <t>Khách hàng</t>
+  </si>
+  <si>
+    <t>Nhân viên</t>
+  </si>
+  <si>
+    <t>Nhà cung cấp</t>
+  </si>
+  <si>
+    <t>Sản phẩm</t>
+  </si>
+  <si>
+    <t>Tài khoản</t>
+  </si>
+  <si>
+    <t>Lưu trữ thông tin khách hàng</t>
+  </si>
+  <si>
+    <t>Lưu trữ thông tin nhân viên</t>
+  </si>
+  <si>
+    <t>Lưu trữ thông tin nhà cung cấp</t>
+  </si>
+  <si>
+    <t>Lưu trữ thông tin hoá đơn bán hàng</t>
+  </si>
+  <si>
+    <t>Lưu trữ thông tin đơn nhập hàng</t>
+  </si>
+  <si>
+    <t>Lưu trữ thông tin sản phẩm trong kho</t>
+  </si>
+  <si>
+    <t>Lưu trữ thông tin tài khoản quản lí và nhân viên</t>
   </si>
 </sst>
 </file>
@@ -406,19 +457,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -428,7 +473,16 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -453,16 +507,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2495550</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>75034</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>94084</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -491,7 +545,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="657225" y="16487775"/>
+          <a:off x="9182100" y="3095625"/>
           <a:ext cx="7772400" cy="5304259"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -801,44 +855,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A849201-0DDA-4EB7-968A-0AC2049F6B4D}">
-  <dimension ref="A1:F77"/>
+  <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="K93" sqref="K93"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="7"/>
-    <col min="2" max="2" width="17.140625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="17.140625" style="5" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="24.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="21.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="39.28515625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="16.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="51.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="3"/>
+      <c r="G2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="H2" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -853,12 +941,21 @@
       <c r="F4" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="G4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -873,12 +970,21 @@
       <c r="F5" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="G5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -890,12 +996,21 @@
       <c r="F6" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="G6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -907,12 +1022,21 @@
       <c r="F7" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="G7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -924,12 +1048,21 @@
       <c r="F8" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="G8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
         <v>5</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -941,12 +1074,21 @@
       <c r="F9" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="G9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
         <v>6</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -959,17 +1101,17 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="6"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="B12" s="7"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -984,12 +1126,16 @@
       <c r="F14" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="G14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -1005,11 +1151,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -1023,10 +1169,10 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -1040,10 +1186,10 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -1057,10 +1203,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -1074,16 +1220,16 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="8"/>
+      <c r="B21" s="10"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -1100,10 +1246,10 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -1120,10 +1266,10 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="5" t="s">
         <v>43</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -1137,10 +1283,10 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -1154,10 +1300,10 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -1171,10 +1317,10 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -1188,10 +1334,10 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -1205,10 +1351,10 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -1222,16 +1368,16 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="6"/>
+      <c r="B32" s="7"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -1248,10 +1394,10 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -1268,10 +1414,10 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="5" t="s">
         <v>62</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -1285,10 +1431,10 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -1302,10 +1448,10 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -1319,10 +1465,10 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -1336,10 +1482,10 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -1353,10 +1499,10 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -1370,10 +1516,10 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -1387,10 +1533,10 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -1404,10 +1550,10 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="5" t="s">
         <v>65</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -1421,10 +1567,10 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="5" t="s">
         <v>66</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -1438,16 +1584,16 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B47" s="6"/>
+      <c r="B47" s="7"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -1464,10 +1610,10 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="5" t="s">
         <v>79</v>
       </c>
       <c r="C50" s="1" t="s">
@@ -1484,10 +1630,10 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="5" t="s">
         <v>80</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -1501,10 +1647,10 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -1518,10 +1664,10 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -1535,10 +1681,10 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="7" t="s">
+      <c r="A54" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C54" s="1" t="s">
@@ -1552,16 +1698,16 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="6" t="s">
+      <c r="A56" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B56" s="6"/>
+      <c r="B56" s="7"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="7" t="s">
+      <c r="A58" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C58" s="1" t="s">
@@ -1578,10 +1724,10 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="7" t="s">
+      <c r="A59" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C59" s="1" t="s">
@@ -1598,10 +1744,10 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="7" t="s">
+      <c r="A60" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="5" t="s">
         <v>85</v>
       </c>
       <c r="C60" s="1" t="s">
@@ -1615,10 +1761,10 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="7" t="s">
+      <c r="A61" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="5" t="s">
         <v>86</v>
       </c>
       <c r="C61" s="1" t="s">
@@ -1632,10 +1778,10 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="7" t="s">
+      <c r="A62" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="5" t="s">
         <v>87</v>
       </c>
       <c r="C62" s="1" t="s">
@@ -1649,10 +1795,10 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="7" t="s">
+      <c r="A63" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="5" t="s">
         <v>88</v>
       </c>
       <c r="C63" s="1" t="s">
@@ -1666,10 +1812,10 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="7" t="s">
+      <c r="A64" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C64" s="1" t="s">
@@ -1683,10 +1829,10 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="7" t="s">
+      <c r="A65" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="5" t="s">
         <v>79</v>
       </c>
       <c r="C65" s="1" t="s">
@@ -1700,10 +1846,10 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="7" t="s">
+      <c r="A66" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="5" t="s">
         <v>66</v>
       </c>
       <c r="C66" s="1" t="s">
@@ -1717,10 +1863,10 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="7" t="s">
+      <c r="A67" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="5" t="s">
         <v>89</v>
       </c>
       <c r="C67" s="1" t="s">
@@ -1734,10 +1880,10 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="7" t="s">
+      <c r="A68" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="5" t="s">
         <v>90</v>
       </c>
       <c r="C68" s="1" t="s">
@@ -1751,16 +1897,16 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="9" t="s">
+      <c r="A70" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B70" s="9"/>
+      <c r="B70" s="8"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="7" t="s">
+      <c r="A72" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C72" s="1" t="s">
@@ -1777,10 +1923,10 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="7" t="s">
+      <c r="A73" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="5" t="s">
         <v>65</v>
       </c>
       <c r="C73" s="1" t="s">
@@ -1794,10 +1940,10 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="7" t="s">
+      <c r="A74" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="5" t="s">
         <v>98</v>
       </c>
       <c r="C74" s="1" t="s">
@@ -1811,10 +1957,10 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="7" t="s">
+      <c r="A75" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="5" t="s">
         <v>99</v>
       </c>
       <c r="C75" s="1" t="s">
@@ -1827,26 +1973,24 @@
         <v>102</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B77" s="6"/>
-    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="G1:K1"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="A56:B56"/>
     <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="G14:H14"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="G3:G9" numberStoredAsText="1"/>
+  </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Thiết kế/Thiết kế dữ liệu/Thiết kế dữ liệu.xlsx
+++ b/Thiết kế/Thiết kế dữ liệu/Thiết kế dữ liệu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\CNPM\Thiết kế\Thiết kế dữ liệu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286BF497-A92B-41A7-A76D-A58346F73D13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3F67AB-8365-4AC0-A2AD-835194EC26A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F0033F1E-B8C9-4114-96FD-579E1B5FF0C8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="120">
   <si>
     <t>Thiết kế dữ liệu</t>
   </si>
@@ -334,9 +334,6 @@
   </si>
   <si>
     <t>Loại tài khoản ( quản lý / nhân viên )</t>
-  </si>
-  <si>
-    <t>Bảng ERD</t>
   </si>
   <si>
     <t>Danh sách các bảng</t>
@@ -457,7 +454,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -473,18 +470,19 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -501,61 +499,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>94084</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D11EEC02-F269-4F02-9454-D59A421CAE42}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9182100" y="3095625"/>
-          <a:ext cx="7772400" cy="5304259"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -858,7 +801,7 @@
   <dimension ref="A1:K75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -877,20 +820,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
+      <c r="G1" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -902,10 +845,10 @@
         <v>1</v>
       </c>
       <c r="H2" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>6</v>
@@ -916,10 +859,10 @@
         <v>9</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -945,10 +888,10 @@
         <v>10</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -974,10 +917,10 @@
         <v>11</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1000,10 +943,10 @@
         <v>12</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1026,10 +969,10 @@
         <v>13</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1052,10 +995,10 @@
         <v>14</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1078,10 +1021,10 @@
         <v>42</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1102,10 +1045,10 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="7"/>
+      <c r="B12" s="8"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
@@ -1126,10 +1069,8 @@
       <c r="F14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H14" s="7"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
@@ -1220,10 +1161,10 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="10"/>
+      <c r="B21" s="9"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -1368,10 +1309,10 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="7"/>
+      <c r="B32" s="8"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
@@ -1584,10 +1525,10 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B47" s="7"/>
+      <c r="B47" s="8"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
@@ -1698,10 +1639,10 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="7" t="s">
+      <c r="A56" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B56" s="7"/>
+      <c r="B56" s="8"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
@@ -1897,10 +1838,10 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="8" t="s">
+      <c r="A70" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B70" s="8"/>
+      <c r="B70" s="10"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
@@ -1974,23 +1915,21 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A70:B70"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="G14:H14"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="G3:G9" numberStoredAsText="1"/>
+    <ignoredError sqref="G3:G9 A15:A19 E5 E15 E24" numberStoredAsText="1"/>
   </ignoredErrors>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>